--- a/resources/chunks/10000002.xlsx
+++ b/resources/chunks/10000002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3870" windowWidth="13380" windowHeight="7290" tabRatio="417"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13935" windowHeight="7395" tabRatio="417"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="4">
   <si>
-    <t>ground</t>
+    <t>water</t>
   </si>
   <si>
     <t>road</t>
   </si>
   <si>
-    <t>water</t>
+    <t>door</t>
   </si>
   <si>
-    <t>door</t>
+    <t>treeLi</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -91,13 +105,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -106,6 +113,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -131,13 +152,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -146,6 +160,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -171,13 +199,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -186,6 +207,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -211,13 +246,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -226,6 +254,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -251,13 +293,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -266,6 +301,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -291,13 +340,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -306,6 +348,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -331,13 +387,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -352,56 +401,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -427,13 +434,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -442,6 +442,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -467,13 +481,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -482,6 +489,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -507,13 +528,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -522,6 +536,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -547,13 +575,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -568,56 +589,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -643,13 +622,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -658,6 +630,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -676,59 +662,32 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF128017"/>
+      <color rgb="FF21C94D"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1020,7 +979,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1"/>
@@ -1030,57 +989,57 @@
   <sheetData>
     <row r="1" spans="1:16" ht="54" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="54" customHeight="1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1125,12 +1084,12 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="54" customHeight="1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1175,27 +1134,27 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="54" customHeight="1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1204,13 +1163,13 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
@@ -1225,27 +1184,27 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="54" customHeight="1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1254,16 +1213,16 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
         <v>1</v>
@@ -1275,27 +1234,27 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="54" customHeight="1">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1304,16 +1263,16 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
@@ -1325,27 +1284,27 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="54" customHeight="1">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1354,16 +1313,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
@@ -1375,27 +1334,27 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="54" customHeight="1">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1404,16 +1363,16 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
         <v>1</v>
@@ -1425,27 +1384,27 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="54" customHeight="1">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1454,16 +1413,16 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>1</v>
@@ -1475,27 +1434,27 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="54" customHeight="1">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -1504,16 +1463,16 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
         <v>1</v>
@@ -1525,27 +1484,27 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="54" customHeight="1">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1554,16 +1513,16 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>1</v>
@@ -1575,74 +1534,78 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="54" customHeight="1">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="H12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="N12" t="s">
         <v>2</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="81" priority="2" operator="containsText" text="road">
+    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="road">
       <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="water">
+    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="water">
       <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="4" operator="containsText" text="ground">
+    <cfRule type="containsText" dxfId="75" priority="6" operator="containsText" text="ground">
       <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="80" priority="1" operator="containsText" text="door">
+    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="door">
       <formula>NOT(ISERROR(SEARCH("door",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+      <formula>"treeEl"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
